--- a/NeuroPixel/histology/rsc_sessions.xlsx
+++ b/NeuroPixel/histology/rsc_sessions.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/attialex/code/AlexA_Library/NeuroPixel/histology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\AlexA_Library\NeuroPixel\histology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0B9F63D-77BC-9548-B0FC-5473B9D5DBBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="6020" windowWidth="27640" windowHeight="16540" xr2:uid="{CEFFF3A9-6128-9B4A-AEF2-1A842F3EBF52}"/>
+    <workbookView xWindow="2505" yWindow="6015" windowWidth="27645" windowHeight="16545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>SessionName</t>
   </si>
@@ -57,9 +56,6 @@
     <t>AA2_190812_gain_1</t>
   </si>
   <si>
-    <t>AA3_190804_gain_1</t>
-  </si>
-  <si>
     <t>AA44_190926_gain_1</t>
   </si>
   <si>
@@ -97,13 +93,50 @@
   </si>
   <si>
     <t>Hemisphere</t>
+  </si>
+  <si>
+    <t>AA_190709_2</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>AA_190830_044</t>
+  </si>
+  <si>
+    <t>AA_190830_045</t>
+  </si>
+  <si>
+    <t>AA_190830_046</t>
+  </si>
+  <si>
+    <t>AA_190830_047</t>
+  </si>
+  <si>
+    <t>AA_190906_049</t>
+  </si>
+  <si>
+    <t>AA_190906_050</t>
+  </si>
+  <si>
+    <t>AA_190709_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,8 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,21 +483,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DF3050-18A1-564F-97F7-55EEA9416BB0}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,92 +508,231 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/NeuroPixel/histology/rsc_sessions.xlsx
+++ b/NeuroPixel/histology/rsc_sessions.xlsx
@@ -165,9 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -515,7 +518,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C2">
@@ -571,7 +574,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C6">
@@ -599,7 +602,7 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8">
@@ -669,7 +672,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13">
@@ -683,7 +686,7 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14">
@@ -737,5 +740,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>